--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value582.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value582.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.023440568486229</v>
+        <v>1.109331011772156</v>
       </c>
       <c r="B1">
-        <v>1.76313211991232</v>
+        <v>1.946161389350891</v>
       </c>
       <c r="C1">
-        <v>2.085582622867999</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.246198890369231</v>
+        <v>2.035928726196289</v>
       </c>
       <c r="E1">
-        <v>1.845238515813493</v>
+        <v>1.112438440322876</v>
       </c>
     </row>
   </sheetData>
